--- a/Factures_Excel/1780 - 9112-9031 Québec inc.xlsx
+++ b/Factures_Excel/1780 - 9112-9031 Québec inc.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8D5E40-4DC0-4E9A-8D60-BF25B2717FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152CF336-3DB7-4036-9CE2-A7AC9ED0752F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024-09-02 - 24-24481" sheetId="4" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="AcctType" hidden="1">#REF!</definedName>
@@ -50,6 +51,8 @@
     <definedName name="Invoice_Total">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
     <definedName name="Invoice_TotPaid">OFFSET(#REF!,1,,COUNTA(#REF!)-1,1)</definedName>
     <definedName name="Liste_Activités">[1]Admin!$Z$11:$Z$50</definedName>
+    <definedName name="mergee">[2]Admin!$Z$11:$Z$50</definedName>
+    <definedName name="mergeee">OFFSET([2]Admin!$Z$11,,,COUNTA([2]Admin!$Z:$Z)-1,1)</definedName>
     <definedName name="MoisFinAnnéeFinancière">[1]Admin!$N$23</definedName>
     <definedName name="Pay_ID">OFFSET([1]ENC_Entête!#REF!,1,,COUNTA([1]ENC_Entête!$A$2:$A$999987)-1,1)</definedName>
     <definedName name="PayItem_Amount">OFFSET([1]ENC_Détails!#REF!,1,,COUNTA([1]ENC_Détails!#REF!)-1,1)</definedName>
@@ -886,17 +889,8 @@
       <sheetName val="CAR_TDB_PivotTable"/>
       <sheetName val="TEC_TDB_PivotTable"/>
       <sheetName val="TEC_Local"/>
+      <sheetName val="APP_v4.G.3"/>
     </sheetNames>
-    <definedNames>
-      <definedName name="FAC_Finale_Cacher_Heures"/>
-      <definedName name="FAC_Finale_Cacher_Sommaire_Taux"/>
-      <definedName name="FAC_Finale_Creation_PDF"/>
-      <definedName name="FAC_Finale_Goto_Onglet_FAC_Brouillon"/>
-      <definedName name="FAC_Finale_Montrer_Heures"/>
-      <definedName name="FAC_Finale_Montrer_Sommaire_Taux"/>
-      <definedName name="FAC_Finale_Preview_PDF"/>
-      <definedName name="FAC_Finale_Save"/>
-    </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
@@ -9216,6 +9210,339 @@
       <sheetData sheetId="44"/>
       <sheetData sheetId="45"/>
       <sheetData sheetId="46"/>
+      <sheetData sheetId="47" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="X_Analyse_Intégrité"/>
+      <sheetName val="X_Heures_Jour_Prof"/>
+      <sheetName val="Menu"/>
+      <sheetName val="Admin"/>
+      <sheetName val="BD_Clients"/>
+      <sheetName val="BD_Fournisseurs"/>
+      <sheetName val="CAR_Liste_Agée"/>
+      <sheetName val="CSV_File"/>
+      <sheetName val="DEB_Recurrent"/>
+      <sheetName val="DEB_Saisie"/>
+      <sheetName val="DEB_Trans"/>
+      <sheetName val="Doc_Application"/>
+      <sheetName val="Doc_ConditionalFormatting"/>
+      <sheetName val="Doc_Formules"/>
+      <sheetName val="Doc_NamedRanges"/>
+      <sheetName val="Doc_Subs&amp;Functions"/>
+      <sheetName val="Doc_TableLayouts"/>
+      <sheetName val="Doc_Tests_And_Todos"/>
+      <sheetName val="ENC_Détails"/>
+      <sheetName val="ENC_Entête"/>
+      <sheetName val="ENC_Saisie"/>
+      <sheetName val="FAC_Brouillon"/>
+      <sheetName val="FAC_Comptes_Clients"/>
+      <sheetName val="FAC_Confirmation"/>
+      <sheetName val="FAC_Détails"/>
+      <sheetName val="FAC_Entête"/>
+      <sheetName val="FAC_Finale"/>
+      <sheetName val="FAC_Histo"/>
+      <sheetName val="FAC_Projets_Détails"/>
+      <sheetName val="FAC_Projets_Entête"/>
+      <sheetName val="FAC_Sommaire_Taux"/>
+      <sheetName val="GL_BV"/>
+      <sheetName val="GL_EJ"/>
+      <sheetName val="GL_EJ_Auto"/>
+      <sheetName val="GL_Rapport"/>
+      <sheetName val="GL_Trans"/>
+      <sheetName val="Hres_Jour_Prof"/>
+      <sheetName val="MenuDEB"/>
+      <sheetName val="MenuFACT"/>
+      <sheetName val="MenuGL"/>
+      <sheetName val="MenuTEC"/>
+      <sheetName val="TEC_Analyse"/>
+      <sheetName val="TEC_TDB"/>
+      <sheetName val="TEC_TDB_Data"/>
+      <sheetName val="TEC_TDB_PivotTable"/>
+      <sheetName val="TEC_Local"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="10">
+          <cell r="Z10" t="str">
+            <v>Description</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="Z11" t="str">
+            <v>Rencontre avec vous à nos bureaux;</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="Z12" t="str">
+            <v>Rencontre avec vous aux bureaux des notaires et déplacement;</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="Z13" t="str">
+            <v>Rencontre avec vous à vos bureaux et déplacement;</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="Z14" t="str">
+            <v>Rencontre avec vous par Vidéoconférence;</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="Z15" t="str">
+            <v>Préparation à la rencontre et rencontre avec vous à nos bureaux;</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="Z16" t="str">
+            <v>Préparation à la rencontre, déplacement et rencontre avec vous aux bureaux des notaires;</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="Z17" t="str">
+            <v>Préparation à la rencontre, déplacement et rencontre avec vous à vos bureaux;</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="Z18" t="str">
+            <v>Préparation à la rencontre et rencontre avec vous par Vidéoconférence;</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="Z19" t="str">
+            <v>Recueullir les différentes informations pertinentes à l'élaboration de la planification fiscale;</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="Z20" t="str">
+            <v>Recueuillir les informations pour la création d'une société;</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="Z21" t="str">
+            <v>Recueuillir les informations pour la création d'une fiducie;</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="Z22" t="str">
+            <v>Prise de connaissance et analyse des documents soumis;</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="Z23" t="str">
+            <v>Obtention et analyse des différents soldes fiscaux de toutes les parties impliquées;</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="Z24" t="str">
+            <v>Analyse des livres des minutes pour déterminer les caractéristiques fiscales des actions;</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="Z25" t="str">
+            <v>Préparation de tableaux de capital actions;</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="Z26" t="str">
+            <v>Analyse, réflexions et recherches fiscales permettant de déterminer le plan d'action fiscal optimal;</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="Z27" t="str">
+            <v>Rédaction d'un mémorandum fiscal pour mettre en place la réorganisation fiscale déterminée;</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="Z28" t="str">
+            <v>Rédaction de directives aux juristes afin de mettre en place la planification fiscale;</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="Z29" t="str">
+            <v>Préparation d'organigrammes corporatifs avant et après opérations;</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="Z30" t="str">
+            <v>Recherches et analyses fiscales requises pour la mise en place de la réorganisation;</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="Z31" t="str">
+            <v>Analyse des risques fiscaux potentiels (règles générales anti-évitement générale et spécifiques);</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="Z32" t="str">
+            <v>Estimation du calcul du Revenu Protégé année par année nécessaire pour les fins de la réorganisation;</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="Z33" t="str">
+            <v>Révision de la documentation juridique afférente à la présente réorganisation;</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="Z34" t="str">
+            <v>Discussion avec un expert en taxes à la consommation pour les différents aspects de la réorganisation;</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="Z36" t="str">
+            <v>Divers calculs effectués en lien avec la mise en place;</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="Z37" t="str">
+            <v>Démarches d'obtention du numéro d'entreprise fédéral pour la nouvelle société;</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="Z38" t="str">
+            <v>Préparation des formulaires d'autorisations requis;</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="Z39" t="str">
+            <v>Démarches d'obtention des numéros pour la nouvelle entité;</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="Z40" t="str">
+            <v>Préparation des formulaires de roulement T2057 et TP-518 requis;</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="Z41" t="str">
+            <v>Préparation des formulaires de ventes de comptes clients T2022 et TP-184 requis;</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="Z42" t="str">
+            <v>Préparation des formulaires de taxes FP-2044 requis pour le transfert de la totalité ou presque d'une entreprise;</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="Z43" t="str">
+            <v>Préparation des différents formulaires et annexes requises afin de déclarer un CDC;</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="Z44" t="str">
+            <v>Préparation du formulaire T2027règlement de dette lors de la liquidation de filiale;</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="Z45" t="str">
+            <v>Préparer un sommaire de chèques à faire pour la séance de clôture;</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="Z46" t="str">
+            <v>Validation de la conformité des chèques/virements effectués en concordance avec nos directives;</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="Z47" t="str">
+            <v>Préparation des formulaires de choix fiscaux de clauses de non-concurrence;</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="Z48" t="str">
+            <v>Diverses discussions téléphoniques avec vous;</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="Z49" t="str">
+            <v>Diverses discussions téléphoniques avec vous et le juriste;</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="Z50" t="str">
+            <v>Diverses discussions téléphoniques avec vous, le juriste et votre comptable;</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="Z51" t="str">
+            <v>Lecture, analyse et rédaction de divers courriels avec les divers intervenants;</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="Z52" t="str">
+            <v>Préparation à la rencontre et rencontre avec vous pour la signature des documents préparés;</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="Z53" t="str">
+            <v>Préparation à la rencontre, déplacement et rencontre avec vous pour la signature des documents préparés;</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="Z55" t="str">
+            <v>Travail avec votre comptable à la préparation/révision des états financiers et déclarations de revenus;</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="Z56" t="str">
+            <v>Analyses et recherches fiscales requises en lien avec xxx;</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -9493,18 +9820,18 @@
       <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="120" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="83" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="84" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="84" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="4"/>
+    <col min="3" max="3" width="11.5546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="83" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="84" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="84" customWidth="1"/>
+    <col min="7" max="16384" width="11.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9512,7 +9839,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -9520,7 +9847,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -9528,7 +9855,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -9536,7 +9863,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -9544,7 +9871,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -9552,7 +9879,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -9560,7 +9887,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -9568,7 +9895,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -9576,7 +9903,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -9584,7 +9911,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -9592,7 +9919,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -9600,7 +9927,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -9608,7 +9935,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -9616,7 +9943,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -9624,7 +9951,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -9632,7 +9959,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -9640,7 +9967,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -9648,7 +9975,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -9656,7 +9983,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -9731,7 +10058,7 @@
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
     </row>
-    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -9751,7 +10078,7 @@
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
     </row>
-    <row r="30" spans="1:6" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="87" t="s">
         <v>6</v>
       </c>
@@ -9760,7 +10087,7 @@
       <c r="D30" s="87"/>
       <c r="E30" s="87"/>
     </row>
-    <row r="31" spans="1:6" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
@@ -9768,7 +10095,7 @@
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
     </row>
-    <row r="32" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
       <c r="B32" s="22" t="s">
         <v>7</v>
@@ -9778,7 +10105,7 @@
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
     </row>
-    <row r="33" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="27"/>
       <c r="B33" s="28"/>
       <c r="C33" s="27"/>
@@ -9786,7 +10113,7 @@
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
     </row>
-    <row r="34" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="29" t="s">
         <v>8</v>
@@ -9796,7 +10123,7 @@
       <c r="E34" s="31"/>
       <c r="F34" s="32"/>
     </row>
-    <row r="35" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="29"/>
       <c r="C35" s="33"/>
@@ -9804,7 +10131,7 @@
       <c r="E35" s="31"/>
       <c r="F35" s="32"/>
     </row>
-    <row r="36" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="29"/>
       <c r="C36" s="30"/>
@@ -9812,7 +10139,7 @@
       <c r="E36" s="31"/>
       <c r="F36" s="32"/>
     </row>
-    <row r="37" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="29"/>
       <c r="C37" s="30"/>
@@ -9820,7 +10147,7 @@
       <c r="E37" s="31"/>
       <c r="F37" s="32"/>
     </row>
-    <row r="38" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="29"/>
       <c r="C38" s="30"/>
@@ -9828,7 +10155,7 @@
       <c r="E38" s="31"/>
       <c r="F38" s="32"/>
     </row>
-    <row r="39" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
       <c r="B39" s="29"/>
       <c r="C39" s="30"/>
@@ -9836,7 +10163,7 @@
       <c r="E39" s="31"/>
       <c r="F39" s="32"/>
     </row>
-    <row r="40" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="B40" s="29"/>
       <c r="C40" s="33"/>
@@ -9844,7 +10171,7 @@
       <c r="E40" s="31"/>
       <c r="F40" s="32"/>
     </row>
-    <row r="41" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="29"/>
       <c r="C41" s="30"/>
@@ -9852,7 +10179,7 @@
       <c r="E41" s="31"/>
       <c r="F41" s="32"/>
     </row>
-    <row r="42" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="B42" s="29"/>
       <c r="C42" s="30"/>
@@ -9860,7 +10187,7 @@
       <c r="E42" s="31"/>
       <c r="F42" s="32"/>
     </row>
-    <row r="43" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="B43" s="29"/>
       <c r="C43" s="30"/>
@@ -9868,7 +10195,7 @@
       <c r="E43" s="31"/>
       <c r="F43" s="32"/>
     </row>
-    <row r="44" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="29"/>
       <c r="C44" s="30"/>
@@ -9876,7 +10203,7 @@
       <c r="E44" s="31"/>
       <c r="F44" s="32"/>
     </row>
-    <row r="45" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
       <c r="B45" s="29"/>
       <c r="C45" s="30"/>
@@ -9884,7 +10211,7 @@
       <c r="E45" s="31"/>
       <c r="F45" s="32"/>
     </row>
-    <row r="46" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="27"/>
       <c r="B46" s="29"/>
       <c r="C46" s="30"/>
@@ -9892,7 +10219,7 @@
       <c r="E46" s="31"/>
       <c r="F46" s="32"/>
     </row>
-    <row r="47" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="29"/>
       <c r="C47" s="30"/>
@@ -9900,7 +10227,7 @@
       <c r="E47" s="31"/>
       <c r="F47" s="32"/>
     </row>
-    <row r="48" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="29"/>
       <c r="C48" s="30"/>
@@ -9908,7 +10235,7 @@
       <c r="E48" s="31"/>
       <c r="F48" s="32"/>
     </row>
-    <row r="49" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="29"/>
       <c r="C49" s="30"/>
@@ -9916,7 +10243,7 @@
       <c r="E49" s="31"/>
       <c r="F49" s="32"/>
     </row>
-    <row r="50" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="29"/>
       <c r="C50" s="34"/>
@@ -9924,7 +10251,7 @@
       <c r="E50" s="31"/>
       <c r="F50" s="32"/>
     </row>
-    <row r="51" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="27"/>
       <c r="B51" s="29"/>
       <c r="C51" s="30"/>
@@ -9932,7 +10259,7 @@
       <c r="E51" s="31"/>
       <c r="F51" s="32"/>
     </row>
-    <row r="52" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="27"/>
       <c r="B52" s="29"/>
       <c r="C52" s="30"/>
@@ -9940,7 +10267,7 @@
       <c r="E52" s="31"/>
       <c r="F52" s="32"/>
     </row>
-    <row r="53" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="27"/>
       <c r="B53" s="29"/>
       <c r="C53" s="30"/>
@@ -9948,7 +10275,7 @@
       <c r="E53" s="31"/>
       <c r="F53" s="32"/>
     </row>
-    <row r="54" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="27"/>
       <c r="B54" s="29"/>
       <c r="C54" s="30"/>
@@ -9956,7 +10283,7 @@
       <c r="E54" s="31"/>
       <c r="F54" s="32"/>
     </row>
-    <row r="55" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="27"/>
       <c r="B55" s="29"/>
       <c r="C55" s="30"/>
@@ -9964,7 +10291,7 @@
       <c r="E55" s="31"/>
       <c r="F55" s="32"/>
     </row>
-    <row r="56" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="27"/>
       <c r="B56" s="29"/>
       <c r="C56" s="30"/>
@@ -9972,7 +10299,7 @@
       <c r="E56" s="31"/>
       <c r="F56" s="32"/>
     </row>
-    <row r="57" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="27"/>
       <c r="B57" s="29"/>
       <c r="C57" s="30"/>
@@ -9980,7 +10307,7 @@
       <c r="E57" s="31"/>
       <c r="F57" s="32"/>
     </row>
-    <row r="58" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="27"/>
       <c r="B58" s="35"/>
       <c r="C58" s="30"/>
@@ -9988,7 +10315,7 @@
       <c r="E58" s="31"/>
       <c r="F58" s="32"/>
     </row>
-    <row r="59" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="27"/>
       <c r="B59" s="35"/>
       <c r="C59" s="30"/>
@@ -9996,7 +10323,7 @@
       <c r="E59" s="31"/>
       <c r="F59" s="32"/>
     </row>
-    <row r="60" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="27"/>
       <c r="B60" s="35"/>
       <c r="C60" s="30"/>
@@ -10004,7 +10331,7 @@
       <c r="E60" s="31"/>
       <c r="F60" s="32"/>
     </row>
-    <row r="61" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="27"/>
       <c r="B61" s="35"/>
       <c r="C61" s="30"/>
@@ -10012,7 +10339,7 @@
       <c r="E61" s="31"/>
       <c r="F61" s="32"/>
     </row>
-    <row r="62" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="27"/>
       <c r="B62" s="35"/>
       <c r="C62" s="30"/>
@@ -10020,7 +10347,7 @@
       <c r="E62" s="31"/>
       <c r="F62" s="32"/>
     </row>
-    <row r="63" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="27"/>
       <c r="B63" s="36"/>
       <c r="C63" s="37"/>
@@ -10028,7 +10355,7 @@
       <c r="E63" s="31"/>
       <c r="F63" s="32"/>
     </row>
-    <row r="64" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="27"/>
       <c r="B64" s="36"/>
       <c r="C64" s="39"/>
@@ -10036,7 +10363,7 @@
       <c r="E64" s="32"/>
       <c r="F64" s="32"/>
     </row>
-    <row r="65" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="27"/>
       <c r="B65" s="35"/>
       <c r="C65" s="41" t="s">
@@ -10048,7 +10375,7 @@
       <c r="E65" s="32"/>
       <c r="F65" s="32"/>
     </row>
-    <row r="66" spans="1:6" s="47" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" s="47" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="27"/>
       <c r="B66" s="43"/>
       <c r="C66" s="44">
@@ -10060,13 +10387,13 @@
       <c r="E66" s="46"/>
       <c r="F66" s="46"/>
     </row>
-    <row r="67" spans="1:6" s="47" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" s="47" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="28"/>
       <c r="B67" s="36"/>
       <c r="E67" s="32"/>
       <c r="F67" s="32"/>
     </row>
-    <row r="68" spans="1:6" s="47" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" s="47" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="28"/>
       <c r="B68" s="48"/>
       <c r="C68" s="49"/>
@@ -10074,7 +10401,7 @@
       <c r="E68" s="49"/>
       <c r="F68" s="28"/>
     </row>
-    <row r="69" spans="1:6" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" s="1" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="50"/>
       <c r="B69" s="51" t="s">
         <v>11</v>
@@ -10087,7 +10414,7 @@
       </c>
       <c r="F69" s="53"/>
     </row>
-    <row r="70" spans="1:6" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" s="1" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="50"/>
       <c r="B70" s="54" t="str">
         <f>[1]FAC_Brouillon!M48</f>
@@ -10101,7 +10428,7 @@
       </c>
       <c r="F70" s="56"/>
     </row>
-    <row r="71" spans="1:6" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" s="1" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="50"/>
       <c r="B71" s="57" t="str">
         <f>[1]FAC_Brouillon!M49</f>
@@ -10115,7 +10442,7 @@
       </c>
       <c r="F71" s="56"/>
     </row>
-    <row r="72" spans="1:6" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" s="1" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="50"/>
       <c r="B72" s="57" t="str">
         <f>[1]FAC_Brouillon!M50</f>
@@ -10129,7 +10456,7 @@
       </c>
       <c r="F72" s="56"/>
     </row>
-    <row r="73" spans="1:6" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" s="1" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="50"/>
       <c r="B73" s="7" t="s">
         <v>12</v>
@@ -10142,7 +10469,7 @@
       </c>
       <c r="F73" s="58"/>
     </row>
-    <row r="74" spans="1:6" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" s="1" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="50"/>
       <c r="B74" s="55" t="s">
         <v>13</v>
@@ -10158,7 +10485,7 @@
       </c>
       <c r="F74" s="60"/>
     </row>
-    <row r="75" spans="1:6" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" s="1" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="50"/>
       <c r="B75" s="61" t="s">
         <v>14</v>
@@ -10174,7 +10501,7 @@
       </c>
       <c r="F75" s="60"/>
     </row>
-    <row r="76" spans="1:6" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" s="1" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="50"/>
       <c r="B76" s="64"/>
       <c r="C76" s="10"/>
@@ -10182,7 +10509,7 @@
       <c r="E76" s="9"/>
       <c r="F76" s="65"/>
     </row>
-    <row r="77" spans="1:6" s="1" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" s="1" customFormat="1" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="50"/>
       <c r="B77" s="66" t="s">
         <v>15</v>
@@ -10195,7 +10522,7 @@
       </c>
       <c r="F77" s="69"/>
     </row>
-    <row r="78" spans="1:6" s="1" customFormat="1" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" s="1" customFormat="1" ht="15.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A78" s="50"/>
       <c r="B78" s="61"/>
       <c r="C78" s="61"/>
@@ -10203,7 +10530,7 @@
       <c r="E78" s="70"/>
       <c r="F78" s="71"/>
     </row>
-    <row r="79" spans="1:6" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" s="1" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="50"/>
       <c r="B79" s="64" t="s">
         <v>16</v>
@@ -10216,7 +10543,7 @@
       </c>
       <c r="F79" s="65"/>
     </row>
-    <row r="80" spans="1:6" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" s="1" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="50"/>
       <c r="B80" s="72"/>
       <c r="C80" s="71"/>
@@ -10224,7 +10551,7 @@
       <c r="E80" s="74"/>
       <c r="F80" s="73"/>
     </row>
-    <row r="81" spans="1:6" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" s="1" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
       <c r="B81" s="88" t="s">
         <v>17</v>
@@ -10237,7 +10564,7 @@
       </c>
       <c r="F81" s="77"/>
     </row>
-    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -10245,14 +10572,14 @@
       <c r="E82" s="77"/>
       <c r="F82" s="77"/>
     </row>
-    <row r="83" spans="1:6" s="80" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" s="80" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="79"/>
       <c r="B83" s="90"/>
       <c r="C83" s="91"/>
       <c r="D83" s="92"/>
       <c r="E83" s="92"/>
     </row>
-    <row r="84" spans="1:6" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" s="1" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="93" t="s">
         <v>18</v>
       </c>
@@ -10261,7 +10588,7 @@
       <c r="D84" s="94"/>
       <c r="E84" s="94"/>
     </row>
-    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="95" t="s">
         <v>19</v>
       </c>
@@ -10271,7 +10598,7 @@
       <c r="E85" s="96"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="81"/>
       <c r="B86" s="81"/>
       <c r="C86" s="81"/>
@@ -10279,7 +10606,7 @@
       <c r="E86" s="82"/>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="81"/>
       <c r="B87" s="81"/>
       <c r="C87" s="81"/>
@@ -10287,7 +10614,7 @@
       <c r="E87" s="82"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="97" t="s">
         <v>20</v>
       </c>
@@ -10297,7 +10624,7 @@
       <c r="E88" s="97"/>
       <c r="F88" s="97"/>
     </row>
-    <row r="89" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="10"/>
       <c r="B89" s="85"/>
       <c r="C89" s="85"/>
